--- a/test1/wb1.xlsx
+++ b/test1/wb1.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23613"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="13940" tabRatio="500"/>
+    <workbookView xWindow="41520" yWindow="2760" windowWidth="29600" windowHeight="15380" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="3" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="103">
   <si>
     <t>Name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -73,10 +73,6 @@
     <t>description</t>
   </si>
   <si>
-    <t>阿达</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>威尔士</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -112,14 +108,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>打发掉方</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>啊适当范</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>f</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -379,10 +367,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>null</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>auto</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -404,6 +388,26 @@
   </si>
   <si>
     <t>e</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>###</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>###</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>aaaa</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>####</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>##</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -989,7 +993,7 @@
   <dimension ref="A1:T34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1007,38 +1011,38 @@
   <sheetData>
     <row r="1" spans="1:20">
       <c r="A1" s="3" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C1" s="4">
         <v>123</v>
       </c>
       <c r="D1" s="4"/>
       <c r="E1" s="4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="G1" s="4" t="b">
         <v>0</v>
       </c>
       <c r="H1" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="L1" s="4" t="s">
         <v>26</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="L1" s="4" t="s">
-        <v>29</v>
       </c>
       <c r="M1" s="4"/>
       <c r="N1" s="4"/>
@@ -1048,24 +1052,24 @@
     </row>
     <row r="2" spans="1:20">
       <c r="A2" s="4" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D2" s="3"/>
       <c r="E2" s="3" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="F2" s="3"/>
       <c r="G2" s="3" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="I2" s="4"/>
       <c r="J2" s="4"/>
@@ -1079,60 +1083,58 @@
     </row>
     <row r="3" spans="1:20" s="1" customFormat="1">
       <c r="A3" s="3" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>27</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="D3" s="3"/>
       <c r="E3" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H3" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I3" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="I3" s="3" t="s">
-        <v>28</v>
-      </c>
       <c r="J3" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="N3" s="3" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="O3" s="3" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="P3" s="3" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="Q3" s="3" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:20" s="2" customFormat="1">
       <c r="A4" s="5" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>0</v>
@@ -1150,40 +1152,40 @@
         <v>12</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="J4" s="5" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="K4" s="5" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="L4" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="M4" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="N4" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="M4" s="5" t="s">
+      <c r="O4" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="P4" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="N4" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="O4" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="P4" s="5" t="s">
-        <v>36</v>
-      </c>
       <c r="Q4" s="5" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="R4" s="2" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -1197,13 +1199,13 @@
         <v>10</v>
       </c>
       <c r="D5" s="4">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="E5" s="4">
         <v>43</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>13</v>
+        <v>98</v>
       </c>
       <c r="G5" s="4" t="b">
         <v>0</v>
@@ -1212,37 +1214,37 @@
         <v>1000</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="J5" s="4" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="K5" s="4" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="L5" s="4" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="M5" s="4" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="N5" s="4" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="O5" s="4" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="P5" s="4" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="Q5" s="4" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="R5">
         <v>1</v>
       </c>
       <c r="T5" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -1256,14 +1258,13 @@
         <v>11</v>
       </c>
       <c r="D6" s="4">
-        <f>C5+C6</f>
-        <v>21</v>
+        <v>120.23</v>
       </c>
       <c r="E6" s="4">
         <v>32</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>23</v>
+        <v>101</v>
       </c>
       <c r="G6" s="4" t="b">
         <v>0</v>
@@ -1272,31 +1273,31 @@
         <v>23423</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="J6" s="4" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="K6" s="4" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="L6" s="4" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="M6" s="4" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="N6" s="4" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="O6" s="4" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="P6" s="4" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="Q6" s="4" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="R6">
         <v>2</v>
@@ -1313,44 +1314,44 @@
         <v>234</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="E7" s="4">
         <v>43</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>24</v>
+        <v>102</v>
       </c>
       <c r="G7" s="4" t="b">
         <v>0</v>
       </c>
       <c r="H7" s="4"/>
       <c r="I7" s="4" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="J7" s="4" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="K7" s="4" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="L7" s="4" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="M7" s="4" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="N7" s="4" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="O7" s="4" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="P7" s="4" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="Q7" s="4" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="R7">
         <v>3.4</v>
@@ -1370,7 +1371,7 @@
         <v>32</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G8" s="4" t="b">
         <v>0</v>
@@ -1380,28 +1381,28 @@
       </c>
       <c r="I8" s="4"/>
       <c r="J8" s="4" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="K8" s="4" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="L8" s="4" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="M8" s="4" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="N8" s="4" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="O8" s="4" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="P8" s="4" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="Q8" s="4" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="R8">
         <v>4.5</v>
@@ -1424,7 +1425,7 @@
         <v>43</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G9" s="4" t="b">
         <v>1</v>
@@ -1433,34 +1434,34 @@
         <v>999999</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="J9" s="4" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="K9" s="4" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="L9" s="4" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="M9" s="4" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="N9" s="4" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="O9" s="4" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="P9" s="4" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="Q9" s="4" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="R9" s="4" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1480,7 +1481,7 @@
         <v>234</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G10" s="4" t="b">
         <v>0</v>
@@ -1489,30 +1490,30 @@
         <v>1000</v>
       </c>
       <c r="I10" s="4" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="J10" s="4"/>
       <c r="K10" s="4" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="L10" s="4"/>
       <c r="M10" s="4" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="N10" s="4" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="O10" s="4" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="P10" s="4" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="Q10" s="4" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="R10" s="4" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1532,7 +1533,7 @@
         <v>43</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G11" s="4" t="b">
         <v>0</v>
@@ -1541,37 +1542,37 @@
         <v>324234</v>
       </c>
       <c r="I11" s="4" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="J11" s="4" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="K11" s="4"/>
       <c r="L11" s="4" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="M11" s="4" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="N11" s="4" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="O11" s="4" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="P11" s="4" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="Q11" s="4" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="R11" s="4" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" s="4" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B12" s="4"/>
       <c r="C12" s="4">
@@ -1584,7 +1585,7 @@
         <v>43</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G12" s="4" t="b">
         <v>0</v>
@@ -1593,34 +1594,34 @@
         <v>1000</v>
       </c>
       <c r="I12" s="4" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="J12" s="4" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="K12" s="4" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="L12" s="4" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="M12" s="4" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="N12" s="4" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="O12" s="4" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="P12" s="4" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="Q12" s="4" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="R12" s="4" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1640,7 +1641,7 @@
         <v>43</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G13" s="4" t="b">
         <v>0</v>
@@ -1649,34 +1650,34 @@
         <v>1000</v>
       </c>
       <c r="I13" s="4" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="J13" s="4" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="K13" s="4" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="L13" s="4" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="M13" s="4" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="N13" s="4" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="O13" s="4" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="P13" s="4" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="Q13" s="4" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="R13" s="4" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1700,7 +1701,7 @@
     </row>
     <row r="15" spans="1:20">
       <c r="A15" s="4" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
@@ -1778,25 +1779,25 @@
     </row>
     <row r="21" spans="1:17">
       <c r="B21" s="2" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" s="2" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" s="2" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="H21" s="2"/>
       <c r="I21" s="2" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1822,11 +1823,11 @@
         <v>12</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H22" s="5"/>
       <c r="J22" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1855,14 +1856,14 @@
     </row>
     <row r="25" spans="1:17">
       <c r="B25" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" s="2" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
@@ -1870,7 +1871,7 @@
     </row>
     <row r="26" spans="1:17">
       <c r="B26" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C26" s="5" t="s">
         <v>2</v>
@@ -1879,7 +1880,7 @@
         <v>12</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F26" s="5"/>
       <c r="G26" s="2"/>
@@ -1905,11 +1906,11 @@
     </row>
     <row r="29" spans="1:17">
       <c r="B29" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" s="2" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="F29" s="2"/>
       <c r="G29" s="2"/>
@@ -1917,13 +1918,13 @@
     </row>
     <row r="30" spans="1:17">
       <c r="B30" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C30" s="5" t="s">
         <v>2</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="E30" s="5"/>
       <c r="F30" s="2"/>
@@ -1941,7 +1942,7 @@
     </row>
     <row r="34" spans="2:2">
       <c r="B34" s="2" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -1961,26 +1962,26 @@
   <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
     <row r="1" spans="1:8" s="1" customFormat="1">
       <c r="A1" s="3" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
@@ -1988,19 +1989,19 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="5" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E2" t="s">
         <v>61</v>
-      </c>
-      <c r="C2" t="s">
-        <v>62</v>
-      </c>
-      <c r="D2" t="s">
-        <v>63</v>
-      </c>
-      <c r="E2" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -2008,7 +2009,7 @@
         <v>10001</v>
       </c>
       <c r="B3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C3">
         <v>10</v>
@@ -2025,7 +2026,7 @@
         <v>10002</v>
       </c>
       <c r="B4" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C4">
         <v>11</v>
@@ -2042,7 +2043,7 @@
         <v>10003</v>
       </c>
       <c r="B5" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C5">
         <v>12</v>
@@ -2059,7 +2060,7 @@
         <v>10004</v>
       </c>
       <c r="B6" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C6">
         <v>13</v>
@@ -2076,7 +2077,7 @@
         <v>10005</v>
       </c>
       <c r="B7" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C7">
         <v>14</v>
@@ -2093,7 +2094,7 @@
         <v>10006</v>
       </c>
       <c r="B8" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C8">
         <v>15</v>
@@ -2110,7 +2111,7 @@
         <v>10007</v>
       </c>
       <c r="B9" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C9">
         <v>16</v>
@@ -2127,7 +2128,7 @@
         <v>10008</v>
       </c>
       <c r="B10" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C10">
         <v>17</v>
@@ -2144,13 +2145,13 @@
         <v>10009</v>
       </c>
       <c r="B11" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C11">
         <v>18</v>
       </c>
-      <c r="D11">
-        <v>13</v>
+      <c r="D11" t="s">
+        <v>99</v>
       </c>
       <c r="E11">
         <v>100</v>
